--- a/data/거주,생활인구 고려한 행정동별 비율.xlsx
+++ b/data/거주,생활인구 고려한 행정동별 비율.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkyoungwoong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkyoungwoong/Documents/GitHub/Location_Selection_and_Simulation_Analysis_for_ReusableCup/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C75F85C-E0F3-A34F-901C-69D141B00F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A49FB7-77AE-1A4C-AB54-F909C73B4E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="720" windowWidth="21080" windowHeight="15720" activeTab="1" xr2:uid="{473EF5E9-0A04-4235-9779-6041F944E50B}"/>
+    <workbookView xWindow="9160" yWindow="760" windowWidth="21080" windowHeight="15720" activeTab="1" xr2:uid="{473EF5E9-0A04-4235-9779-6041F944E50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>서초1동</t>
   </si>
@@ -164,15 +164,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>거주,생활인구 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비율 합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비율 합/100</t>
+    <t>생활인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거주,생활인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10만명 기준 지역별 인구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,9 +256,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1087,15 +1091,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191961D3-B1CB-41FF-BCCF-E9E3EC41BB67}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1109,16 +1116,19 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1134,24 +1144,26 @@
         <v>26.77826402843959</v>
       </c>
       <c r="D2">
+        <v>3512992</v>
+      </c>
+      <c r="E2">
         <v>2.0888149999999999</v>
       </c>
-      <c r="E2">
-        <f>SUM(C2:D2)</f>
-        <v>28.867079028439591</v>
-      </c>
-      <c r="F2">
-        <f>B2*E2/200</f>
-        <v>15906.193550855642</v>
+      <c r="F2" s="1">
+        <f>B2+D2</f>
+        <v>3623195</v>
       </c>
       <c r="G2">
-        <f>F2/100</f>
-        <v>159.06193550855642</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+        <f>F2/$F$8</f>
+        <v>0.35564708762551878</v>
+      </c>
+      <c r="H2" s="6">
+        <f>10000*G2</f>
+        <v>3556.4708762551877</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -1166,24 +1178,26 @@
         <v>6.4951316886127444</v>
       </c>
       <c r="D3">
+        <v>587192.6</v>
+      </c>
+      <c r="E3">
         <v>0.349213</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">SUM(C3:D3)</f>
-        <v>6.8443446886127441</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F7" si="2">B3*E3/200</f>
-        <v>914.74666763309335</v>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F7" si="1">B3+D3</f>
+        <v>613922.6</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="3">F3/100</f>
-        <v>9.147466676330934</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+        <f t="shared" ref="G3:G7" si="2">F3/$F$8</f>
+        <v>6.0261670905785172E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H6" si="3">10000*G3</f>
+        <v>602.61670905785172</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -1198,24 +1212,26 @@
         <v>22.622157316803509</v>
       </c>
       <c r="D4">
+        <v>1847472</v>
+      </c>
+      <c r="E4">
         <v>34.060339999999997</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>56.682497316803506</v>
-      </c>
-      <c r="F4">
+        <v>1940571</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="2"/>
-        <v>26385.419088485447</v>
-      </c>
-      <c r="G4">
+        <v>0.19048337847688038</v>
+      </c>
+      <c r="H4" s="6">
         <f t="shared" si="3"/>
-        <v>263.85419088485446</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+        <v>1904.8337847688038</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -1230,24 +1246,26 @@
         <v>24.095164735298479</v>
       </c>
       <c r="D5">
+        <v>1642761</v>
+      </c>
+      <c r="E5">
         <v>30.286249999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>54.381414735298478</v>
-      </c>
-      <c r="F5">
+        <v>1741922</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="2"/>
-        <v>26962.577332834662</v>
-      </c>
-      <c r="G5">
+        <v>0.1709843069917073</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" si="3"/>
-        <v>269.62577332834661</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+        <v>1709.8430699170731</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -1262,24 +1280,26 @@
         <v>15.749418645620464</v>
       </c>
       <c r="D6">
+        <v>1788840</v>
+      </c>
+      <c r="E6">
         <v>32.979390000000002</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>48.728808645620468</v>
-      </c>
-      <c r="F6">
+        <v>1853655</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="2"/>
-        <v>15791.788661829454</v>
-      </c>
-      <c r="G6">
+        <v>0.1819518414582933</v>
+      </c>
+      <c r="H6" s="6">
         <f t="shared" si="3"/>
-        <v>157.91788661829455</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+        <v>1819.518414582933</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -1294,27 +1314,33 @@
         <v>4.2598635852252151</v>
       </c>
       <c r="D7">
+        <v>396816.7</v>
+      </c>
+      <c r="E7">
         <v>0.23599300000000001</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>4.4958565852252148</v>
-      </c>
-      <c r="F7">
+        <v>414347.7</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="2"/>
-        <v>394.08430897791624</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>3.9408430897791624</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+        <v>4.0671714541815208E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <f>10000*G7</f>
+        <v>406.71714541815209</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="1"/>
+      <c r="F8">
+        <f>SUM(F2:F7)</f>
+        <v>10187613.299999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
